--- a/liauto_southbound.xlsx
+++ b/liauto_southbound.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2769,6 +2769,24 @@
         <v>0.14</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>39.15</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5.29772381</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/liauto_southbound.xlsx
+++ b/liauto_southbound.xlsx
@@ -2784,8 +2784,12 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>68.65000000000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-4.45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/liauto_southbound.xlsx
+++ b/liauto_southbound.xlsx
@@ -1,37 +1,318 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>南向当日净增持：万股</t>
+  </si>
+  <si>
+    <t>南向总持有：亿股</t>
+  </si>
+  <si>
+    <t>开盘价</t>
+  </si>
+  <si>
+    <t>最高价</t>
+  </si>
+  <si>
+    <t>最低价</t>
+  </si>
+  <si>
+    <t>收盘价</t>
+  </si>
+  <si>
+    <t>当日涨跌幅</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
+  </si>
+  <si>
+    <t>2026-02-23</t>
+  </si>
+  <si>
+    <t>2026-02-24</t>
+  </si>
+  <si>
+    <t>2026-02-25</t>
+  </si>
+  <si>
+    <t>2026-02-26</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +327,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2378 +643,2186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>南向当日净增持：万股</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>南向总持有：亿股</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>开盘价</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最高价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最低价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>收盘价</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>当日涨跌幅</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>4.86326796</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>86.2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>87.15000000000001</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>83.09999999999999</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>85.09999999999999</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>49.31</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4.86819896</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>84.40000000000001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>84.55</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>82.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>83.59999999999999</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-1.76</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-10-28</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>-184.0764</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4.84979132</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>83.59999999999999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>83.59999999999999</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>81.25</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>81.59999999999999</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-2.39</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-10-30</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>-974.8653</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.75230479</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>81.59999999999999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>82</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>79.90000000000001</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>80.55</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>-1.29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
         <v>-346.1448</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>4.71769031</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>80.09999999999999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>80.90000000000001</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>79.2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>79.75</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-0.99</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-11-03</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>-182.27</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4.69946331</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>80.09999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>81.95</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>78.8</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>80.90000000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1.44</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
         <v>265.4329</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4.7260066</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>79.84999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>80.09999999999999</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>77.15000000000001</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>77.75</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-3.89</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>363.68</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.7623746</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>76.59999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>77.95</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>76</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>77.34999999999999</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-0.51</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-11-06</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>207.8457</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4.78315917</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>78.5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>79.34999999999999</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>77.7</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>78.90000000000001</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-11-07</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
         <v>-106.95</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4.77246417</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>78.59999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>78.95</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>77.25</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>77.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-1.77</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
         <v>-47.7544</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.76768873</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>78.40000000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>79.90000000000001</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>77.8</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>79.34999999999999</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2.39</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
         <v>45.1767</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.7722064</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>79.15000000000001</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>79.90000000000001</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>78.55</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>79.65000000000001</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.38</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <v>52.39</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.7774454</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>79.84999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>80.95</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>79.40000000000001</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>79.84999999999999</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
         <v>132.9978</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4.79074518</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>78.65000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>79.7</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>77.7</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>79.15000000000001</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>-0.88</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
         <v>52.43</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.79598818</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>78</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>78.40000000000001</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>77.05</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>77.34999999999999</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>-2.27</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
         <v>-23.22</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4.79366618</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>77.34999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>78.05</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>75.25</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>75.40000000000001</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>-2.52</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
         <v>111.5349</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.80481967</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>73.59999999999999</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>74.34999999999999</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>72.55</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>73.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>-2.92</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-11-19</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
         <v>-3.24</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4.80449567</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>73.34999999999999</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>73.34999999999999</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>71.15000000000001</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>71.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-2.6</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
         <v>138.8981</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4.81838548</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>70.59999999999999</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>71.25</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>69.15000000000001</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>70.05</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-1.75</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
         <v>111.8441</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.82956989</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>69.15000000000001</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>69.75</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>68.40000000000001</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>68.65000000000001</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-2</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
         <v>-207.28</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.80884189</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>69.95</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>71.34999999999999</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>69.34999999999999</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>71.34999999999999</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>3.93</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
         <v>248.88</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.83372989</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>71.34999999999999</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>72.45</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>70.8</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>72</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.91</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
         <v>-20.79</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4.83165089</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>72</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>72.7</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>71.55</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>71.7</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
         <v>65.97</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4.83824789</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>71.65000000000001</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>73.45</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>71.40000000000001</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>72.55</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>1.19</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>-129.47</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4.82530089</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>72.40000000000001</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>72.90000000000001</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>71.05</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>71.95</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>-0.83</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
         <v>84.87</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>4.83378789</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>71.75</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>71.75</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>69.90000000000001</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>70.3</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>-2.29</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
         <v>140.61</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.84784889</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>69.90000000000001</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>70.05</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>69</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>69.75</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-0.78</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
         <v>-202.4053</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>4.82760836</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>70</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>70.45</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>69.59999999999999</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>69.75</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
         <v>-25.1242</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4.82509594</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>68.15000000000001</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>69.65000000000001</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>67</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>69.40000000000001</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
         <v>132.68</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>4.83836394</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>69</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>69.90000000000001</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>68.3</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>69.90000000000001</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>0.72</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
         <v>212.74</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>4.85963794</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>69.5</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>70.25</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>69.09999999999999</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>69.65000000000001</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>-0.36</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
         <v>-61.2991</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>4.85350803</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>69.55</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>69.90000000000001</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>67.59999999999999</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>67.7</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>-2.8</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
         <v>208.5898</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4.87436701</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>67.5</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>67.59999999999999</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>66.3</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>66.75</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
         <v>46.72</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>4.87903901</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>66.75</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>67</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>65.59999999999999</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>65.65000000000001</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>-1.65</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
         <v>58.72</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>4.88491101</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>66.40000000000001</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>67.65000000000001</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>66.15000000000001</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>67.55</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>2.89</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
         <v>-109.3859</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4.87397242</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>65.8</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>67.8</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>65.59999999999999</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>65.59999999999999</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>-2.89</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
         <v>-104.13</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4.86355942</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>65.2</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>65.25</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>63.75</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>64.2</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>-2.13</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
         <v>-12.92</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4.86226742</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>64.2</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>64.59999999999999</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>63.5</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>64.09999999999999</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-12-18</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
         <v>164.58</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.87872542</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>63</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>63.15</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>62.2</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>63.05</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-1.64</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
         <v>149.8716</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>4.89371258</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>63.15</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>65.5</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>63.1</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>65.45</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>3.81</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
         <v>-40.45</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.88966758</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>66</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>67.65000000000001</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>65.7</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>66.05</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>0.92</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
         <v>141.18</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.90378558</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>66.05</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>66.40000000000001</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>64.84999999999999</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>65.15000000000001</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>-1.36</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-12-24</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.90378558</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>65</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>65.5</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>64.75</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>65.05</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
         <v>58.91</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.90967658</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>67.05</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>67.95</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>65.90000000000001</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>66.09999999999999</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>1.61</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
         <v>-32.34</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.90644258</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>66.05</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>66.45</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>65.40000000000001</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>65.8</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.90644258</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>66.40000000000001</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>67.05</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>64.3</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>64.84999999999999</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>-1.44</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.90644258</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>65.8</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>69.34999999999999</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>65.59999999999999</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>68.05</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>4.93</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
         <v>199.0978</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.92635236</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>67.05</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>67.05</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>65.75</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>66.34999999999999</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>-2.5</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>4.92635236</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>67.34999999999999</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>68.55</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>66.95</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>67.95</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>2.41</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
         <v>313.55</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>4.95770736</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>66.8</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>67.40000000000001</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>66.25</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>66.8</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>-1.69</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
         <v>-94.0878</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>4.94829858</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>66.59999999999999</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>66.59999999999999</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>65.09999999999999</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>65.95</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>-1.27</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
         <v>378</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>4.98609858</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>65.45</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>66.2</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>64.84999999999999</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>65.05</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>-1.36</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
         <v>218.6138</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>5.00795996</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>64.59999999999999</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>65.09999999999999</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>63</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>65.05</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
         <v>76.31999999999999</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.01559196</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>66</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>66.90000000000001</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>64.8</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>65.05</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
         <v>-49.91</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5.01060096</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>65.05</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>65.45</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>63.45</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>63.9</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>-1.77</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
         <v>-80.38</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>5.00256296</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>63.8</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>65.05</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>63.4</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>64.25</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>0.55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
         <v>78.79000000000001</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>5.01044196</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>64.8</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>65.3</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>62.7</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>62.8</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>-2.26</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
         <v>63.7</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>5.01681196</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>62.15</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>63.2</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>61.7</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>62.55</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
         <v>118.49</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>5.02866096</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>62.75</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>63.3</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>61.85</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>61.85</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>-1.12</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
         <v>-5.3</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>5.02813096</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>61.5</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>63.25</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>61.15</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>62.95</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>1.78</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
         <v>118.62</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>5.03999296</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>63.1</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>65.8</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>63.1</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>65.55</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>4.13</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
         <v>-60.74</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>5.03391896</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>66</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>67.45</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>65.5</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>65.84999999999999</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>0.46</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
         <v>330.34</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>5.06695296</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>65.8</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>66.55</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>64.25</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>65.75</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
         <v>370.6</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>5.10401296</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>66.05</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>66.84999999999999</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>65.3</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>65.3</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>-0.68</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
         <v>214.87</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>5.12549996</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>65.7</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>68.75</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>64.65000000000001</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>68.5</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>4.9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
         <v>19.09</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>5.12740896</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>68</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>68.05</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>66.55</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>67.7</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>-1.17</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
         <v>-127.46</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>5.11466296</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>67.5</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>67.5</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>65.65000000000001</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>65.95</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>-2.58</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
         <v>374.92</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>5.15215496</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>65</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>65.65000000000001</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>63.4</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>64.45</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>-2.27</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
         <v>205.8325</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>5.17273821</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>64.45</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>66.15000000000001</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>63.8</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>65.65000000000001</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>1.86</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
         <v>210.4</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>5.19377821</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>66.25</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>69.34999999999999</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>65.95</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>67.90000000000001</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>3.43</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
         <v>86.496</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>5.20242781</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>67.5</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>69.75</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>67.3</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>69.2</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>1.91</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
         <v>109.06</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>5.21333381</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>68.7</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>73.05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>68.55</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>71.7</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>3.61</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
         <v>385.37</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>5.25187081</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>73.34999999999999</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>73.95</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>70.90000000000001</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>71.95</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>0.35</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
         <v>349.31</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>5.28680181</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>72</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>73.25</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>70.75</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>72.8</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>1.18</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
         <v>63.29</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5.29313081</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>73.5</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>75.59999999999999</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>73.5</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>74.8</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>2.75</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
         <v>1.62</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.29329281</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>75</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>75</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>73.55</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>73.95</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>-1.14</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
         <v>42.53</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.29754581</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>72.8</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>73.34999999999999</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>71.5</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>72.3</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>-2.23</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.29754581</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>71.90000000000001</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>72.25</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>69.90000000000001</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>72.09999999999999</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>-0.28</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
         <v>0</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>5.29754581</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>71.34999999999999</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>71.75</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>69.55</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>70.09999999999999</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>-2.77</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
         <v>0</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>5.29754581</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>70.3</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>73.3</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>70.3</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>72.84999999999999</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>3.92</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
         <v>-37.37</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>5.29380881</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>71.8</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>73.5</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>71.3</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>71.75</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>-1.51</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>5.29380881</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>72.8</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>73.15000000000001</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>70.5</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>71.84999999999999</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>0.14</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
         <v>39.15</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>5.29772381</v>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>68.65000000000001</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>-4.45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/liauto_southbound.xlsx
+++ b/liauto_southbound.xlsx
@@ -1,37 +1,321 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>南向当日净增持：万股</t>
+  </si>
+  <si>
+    <t>南向总持有：亿股</t>
+  </si>
+  <si>
+    <t>开盘价</t>
+  </si>
+  <si>
+    <t>最高价</t>
+  </si>
+  <si>
+    <t>最低价</t>
+  </si>
+  <si>
+    <t>收盘价</t>
+  </si>
+  <si>
+    <t>当日涨跌幅</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
+  </si>
+  <si>
+    <t>2026-02-23</t>
+  </si>
+  <si>
+    <t>2026-02-24</t>
+  </si>
+  <si>
+    <t>2026-02-25</t>
+  </si>
+  <si>
+    <t>2026-02-26</t>
+  </si>
+  <si>
+    <t>2026-02-27</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +330,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2378 +646,2221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>南向当日净增持：万股</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>南向总持有：亿股</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>开盘价</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最高价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最低价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>收盘价</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>当日涨跌幅</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>4.86326796</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>86.2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>87.15000000000001</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>83.09999999999999</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>85.09999999999999</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>49.31</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4.86819896</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>84.40000000000001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>84.55</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>82.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>83.59999999999999</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-1.76</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-10-28</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>-184.0764</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4.84979132</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>83.59999999999999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>83.59999999999999</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>81.25</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>81.59999999999999</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-2.39</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-10-30</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>-974.8653</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.75230479</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>81.59999999999999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>82</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>79.90000000000001</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>80.55</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>-1.29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
         <v>-346.1448</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>4.71769031</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>80.09999999999999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>80.90000000000001</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>79.2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>79.75</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-0.99</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-11-03</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>-182.27</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4.69946331</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>80.09999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>81.95</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>78.8</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>80.90000000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1.44</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
         <v>265.4329</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4.7260066</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>79.84999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>80.09999999999999</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>77.15000000000001</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>77.75</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-3.89</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>363.68</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.7623746</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>76.59999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>77.95</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>76</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>77.34999999999999</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-0.51</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-11-06</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>207.8457</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4.78315917</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>78.5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>79.34999999999999</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>77.7</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>78.90000000000001</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-11-07</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
         <v>-106.95</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4.77246417</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>78.59999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>78.95</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>77.25</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>77.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-1.77</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
         <v>-47.7544</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.76768873</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>78.40000000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>79.90000000000001</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>77.8</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>79.34999999999999</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2.39</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
         <v>45.1767</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.7722064</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>79.15000000000001</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>79.90000000000001</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>78.55</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>79.65000000000001</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.38</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <v>52.39</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.7774454</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>79.84999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>80.95</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>79.40000000000001</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>79.84999999999999</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
         <v>132.9978</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4.79074518</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>78.65000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>79.7</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>77.7</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>79.15000000000001</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>-0.88</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
         <v>52.43</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.79598818</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>78</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>78.40000000000001</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>77.05</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>77.34999999999999</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>-2.27</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
         <v>-23.22</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4.79366618</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>77.34999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>78.05</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>75.25</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>75.40000000000001</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>-2.52</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
         <v>111.5349</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.80481967</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>73.59999999999999</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>74.34999999999999</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>72.55</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>73.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>-2.92</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-11-19</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
         <v>-3.24</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4.80449567</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>73.34999999999999</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>73.34999999999999</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>71.15000000000001</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>71.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-2.6</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
         <v>138.8981</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4.81838548</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>70.59999999999999</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>71.25</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>69.15000000000001</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>70.05</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-1.75</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
         <v>111.8441</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.82956989</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>69.15000000000001</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>69.75</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>68.40000000000001</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>68.65000000000001</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-2</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
         <v>-207.28</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.80884189</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>69.95</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>71.34999999999999</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>69.34999999999999</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>71.34999999999999</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>3.93</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
         <v>248.88</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.83372989</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>71.34999999999999</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>72.45</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>70.8</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>72</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.91</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
         <v>-20.79</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4.83165089</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>72</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>72.7</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>71.55</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>71.7</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
         <v>65.97</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4.83824789</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>71.65000000000001</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>73.45</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>71.40000000000001</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>72.55</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>1.19</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>-129.47</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4.82530089</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>72.40000000000001</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>72.90000000000001</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>71.05</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>71.95</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>-0.83</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
         <v>84.87</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>4.83378789</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>71.75</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>71.75</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>69.90000000000001</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>70.3</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>-2.29</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
         <v>140.61</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.84784889</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>69.90000000000001</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>70.05</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>69</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>69.75</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-0.78</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
         <v>-202.4053</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>4.82760836</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>70</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>70.45</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>69.59999999999999</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>69.75</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
         <v>-25.1242</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4.82509594</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>68.15000000000001</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>69.65000000000001</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>67</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>69.40000000000001</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
         <v>132.68</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>4.83836394</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>69</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>69.90000000000001</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>68.3</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>69.90000000000001</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>0.72</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
         <v>212.74</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>4.85963794</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>69.5</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>70.25</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>69.09999999999999</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>69.65000000000001</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>-0.36</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
         <v>-61.2991</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>4.85350803</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>69.55</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>69.90000000000001</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>67.59999999999999</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>67.7</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>-2.8</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
         <v>208.5898</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4.87436701</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>67.5</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>67.59999999999999</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>66.3</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>66.75</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
         <v>46.72</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>4.87903901</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>66.75</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>67</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>65.59999999999999</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>65.65000000000001</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>-1.65</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
         <v>58.72</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>4.88491101</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>66.40000000000001</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>67.65000000000001</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>66.15000000000001</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>67.55</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>2.89</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
         <v>-109.3859</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4.87397242</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>65.8</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>67.8</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>65.59999999999999</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>65.59999999999999</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>-2.89</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
         <v>-104.13</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4.86355942</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>65.2</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>65.25</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>63.75</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>64.2</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>-2.13</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
         <v>-12.92</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4.86226742</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>64.2</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>64.59999999999999</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>63.5</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>64.09999999999999</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-12-18</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
         <v>164.58</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.87872542</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>63</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>63.15</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>62.2</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>63.05</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-1.64</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
         <v>149.8716</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>4.89371258</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>63.15</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>65.5</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>63.1</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>65.45</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>3.81</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
         <v>-40.45</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.88966758</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>66</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>67.65000000000001</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>65.7</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>66.05</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>0.92</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
         <v>141.18</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.90378558</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>66.05</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>66.40000000000001</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>64.84999999999999</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>65.15000000000001</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>-1.36</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-12-24</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.90378558</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>65</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>65.5</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>64.75</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>65.05</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
         <v>58.91</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.90967658</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>67.05</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>67.95</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>65.90000000000001</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>66.09999999999999</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>1.61</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
         <v>-32.34</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.90644258</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>66.05</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>66.45</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>65.40000000000001</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>65.8</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.90644258</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>66.40000000000001</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>67.05</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>64.3</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>64.84999999999999</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>-1.44</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.90644258</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>65.8</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>69.34999999999999</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>65.59999999999999</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>68.05</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>4.93</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
         <v>199.0978</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.92635236</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>67.05</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>67.05</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>65.75</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>66.34999999999999</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>-2.5</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>4.92635236</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>67.34999999999999</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>68.55</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>66.95</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>67.95</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>2.41</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
         <v>313.55</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>4.95770736</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>66.8</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>67.40000000000001</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>66.25</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>66.8</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>-1.69</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
         <v>-94.0878</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>4.94829858</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>66.59999999999999</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>66.59999999999999</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>65.09999999999999</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>65.95</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>-1.27</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
         <v>378</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>4.98609858</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>65.45</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>66.2</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>64.84999999999999</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>65.05</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>-1.36</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
         <v>218.6138</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>5.00795996</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>64.59999999999999</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>65.09999999999999</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>63</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>65.05</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
         <v>76.31999999999999</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.01559196</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>66</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>66.90000000000001</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>64.8</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>65.05</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
         <v>-49.91</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5.01060096</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>65.05</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>65.45</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>63.45</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>63.9</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>-1.77</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
         <v>-80.38</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>5.00256296</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>63.8</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>65.05</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>63.4</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>64.25</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>0.55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
         <v>78.79000000000001</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>5.01044196</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>64.8</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>65.3</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>62.7</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>62.8</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>-2.26</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
         <v>63.7</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>5.01681196</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>62.15</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>63.2</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>61.7</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>62.55</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
         <v>118.49</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>5.02866096</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>62.75</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>63.3</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>61.85</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>61.85</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>-1.12</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
         <v>-5.3</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>5.02813096</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>61.5</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>63.25</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>61.15</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>62.95</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>1.78</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
         <v>118.62</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>5.03999296</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>63.1</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>65.8</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>63.1</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>65.55</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>4.13</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
         <v>-60.74</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>5.03391896</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>66</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>67.45</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>65.5</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>65.84999999999999</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>0.46</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
         <v>330.34</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>5.06695296</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>65.8</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>66.55</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>64.25</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>65.75</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
         <v>370.6</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>5.10401296</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>66.05</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>66.84999999999999</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>65.3</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>65.3</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>-0.68</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
         <v>214.87</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>5.12549996</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>65.7</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>68.75</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>64.65000000000001</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>68.5</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>4.9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
         <v>19.09</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>5.12740896</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>68</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>68.05</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>66.55</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>67.7</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>-1.17</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
         <v>-127.46</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>5.11466296</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>67.5</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>67.5</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>65.65000000000001</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>65.95</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>-2.58</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
         <v>374.92</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>5.15215496</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>65</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>65.65000000000001</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>63.4</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>64.45</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>-2.27</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
         <v>205.8325</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>5.17273821</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>64.45</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>66.15000000000001</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>63.8</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>65.65000000000001</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>1.86</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
         <v>210.4</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>5.19377821</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>66.25</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>69.34999999999999</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>65.95</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>67.90000000000001</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>3.43</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
         <v>86.496</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>5.20242781</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>67.5</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>69.75</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>67.3</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>69.2</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>1.91</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
         <v>109.06</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>5.21333381</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>68.7</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>73.05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>68.55</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>71.7</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>3.61</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
         <v>385.37</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>5.25187081</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>73.34999999999999</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>73.95</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>70.90000000000001</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>71.95</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>0.35</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
         <v>349.31</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>5.28680181</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>72</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>73.25</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>70.75</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>72.8</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>1.18</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
         <v>63.29</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5.29313081</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>73.5</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>75.59999999999999</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>73.5</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>74.8</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>2.75</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
         <v>1.62</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.29329281</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>75</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>75</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>73.55</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>73.95</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>-1.14</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
         <v>42.53</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.29754581</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>72.8</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>73.34999999999999</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>71.5</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>72.3</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>-2.23</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.29754581</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>71.90000000000001</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>72.25</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>69.90000000000001</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>72.09999999999999</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>-0.28</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
         <v>0</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>5.29754581</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>71.34999999999999</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>71.75</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>69.55</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>70.09999999999999</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>-2.77</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
         <v>0</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>5.29754581</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>70.3</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>73.3</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>70.3</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>72.84999999999999</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>3.92</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
         <v>-37.37</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>5.29380881</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>71.8</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>73.5</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>71.3</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>71.75</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>-1.51</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>5.29380881</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>72.8</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>73.15000000000001</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>70.5</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>71.84999999999999</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>0.14</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
         <v>39.15</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>5.29772381</v>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="n">
+      <c r="D84">
+        <v>71</v>
+      </c>
+      <c r="E84">
+        <v>71.8</v>
+      </c>
+      <c r="F84">
+        <v>68.55</v>
+      </c>
+      <c r="G84">
         <v>68.65000000000001</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>-4.45</v>
       </c>
     </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>5.29772381</v>
+      </c>
+      <c r="D85">
+        <v>69.5</v>
+      </c>
+      <c r="E85">
+        <v>69.5</v>
+      </c>
+      <c r="F85">
+        <v>68.15000000000001</v>
+      </c>
+      <c r="G85">
+        <v>69</v>
+      </c>
+      <c r="H85">
+        <v>0.51</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/liauto_southbound.xlsx
+++ b/liauto_southbound.xlsx
@@ -2819,10 +2819,10 @@
         <v>68.15000000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>

--- a/liauto_southbound.xlsx
+++ b/liauto_southbound.xlsx
@@ -2819,10 +2819,10 @@
         <v>68.15000000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>69.09999999999999</v>
+        <v>68.75</v>
       </c>
       <c r="H85" t="n">
-        <v>0.66</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/liauto_southbound.xlsx
+++ b/liauto_southbound.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,48 +2781,14 @@
       <c r="C84" t="n">
         <v>5.29772381</v>
       </c>
-      <c r="D84" t="n">
-        <v>71</v>
-      </c>
-      <c r="E84" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="F84" t="n">
-        <v>68.55</v>
-      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
         <v>68.65000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>-4.45</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>5.29772381</v>
-      </c>
-      <c r="D85" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="E85" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="F85" t="n">
-        <v>68.15000000000001</v>
-      </c>
-      <c r="G85" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/liauto_southbound.xlsx
+++ b/liauto_southbound.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,14 +2781,48 @@
       <c r="C84" t="n">
         <v>5.29772381</v>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>71</v>
+      </c>
+      <c r="E84" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>68.55</v>
+      </c>
       <c r="G84" t="n">
         <v>68.65000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>-4.45</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.29772381</v>
+      </c>
+      <c r="D85" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>68.15000000000001</v>
+      </c>
+      <c r="G85" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/liauto_southbound.xlsx
+++ b/liauto_southbound.xlsx
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>-32.03</v>
       </c>
       <c r="C85" t="n">
-        <v>5.29772381</v>
+        <v>5.29452081</v>
       </c>
       <c r="D85" t="n">
         <v>69.5</v>
